--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B6057-4C0D-46A1-AF05-83ABB326860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F09686A-715C-4D1C-8789-EEAB0C7F0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="2190">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6615,6 +6615,21 @@
   </si>
   <si>
     <t>Thiên Tướng Quan Phù Tả Hữu Tướng Ấn hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vị trí cung Quan Lộc so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Quan Lộc so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Quan Lộc so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Quan Lộc so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Quan Lộc so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -6665,7 +6680,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6941,10 +6977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G1947"/>
+  <dimension ref="A2:G1952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1933" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1944" sqref="C1944"/>
+    <sheetView tabSelected="1" topLeftCell="A1942" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1948" sqref="C1948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22545,7 +22581,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
         <v>2178</v>
       </c>
@@ -22609,9 +22645,53 @@
         <v>2173</v>
       </c>
     </row>
+    <row r="1948" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1948" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1948" s="1" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1949" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1949" s="1" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1950" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1950" s="1" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1951" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1951" s="1" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1952" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1952" s="1" t="s">
+        <v>2189</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:E1935" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A1948:B1952">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8EEA7-5599-40CB-8222-7A9E11873F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0234145-8016-47CF-BC14-0854008EB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="2213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2226">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6699,6 +6699,45 @@
   </si>
   <si>
     <t>Liên quan tới phạm pháp, có thể không ngồi cùng nhưng cũng sẽ tốn kém tiền bạc.</t>
+  </si>
+  <si>
+    <t>Văn Xương, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Văn xương chủ về công danh, khoa giáp, về văn bút, danh dự, hóa kỵ thì thi cử không đỗ, văn bút bị tổn hại, công danh sa sút, thanh danh bị hoen ố.</t>
+  </si>
+  <si>
+    <t>Vì nhầm lẫn giấy tờ hoặc là vì lo giấy tờ cho người khác, bảo lãnh cho người khác, hoặc vì nợ nần mà xảy ra nhiều chuyện dẫn đến sự nghiệp gặp nhiều sóng gió.</t>
+  </si>
+  <si>
+    <t>Không nên đánh bài bạc, không nên đầu cơ. Nên tuân thủ luật pháp, không nên cố tình trốn thuế.</t>
+  </si>
+  <si>
+    <t>Văn Khúc, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung với Hóa Kỵ tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên cơ là sao tăng thọ, trí tuệ, nếu Hóa kỵ thì trí tuệ sa sút mà dẫn đến nhiều sai lầm</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thiên Lương đồng cung với Địa Kiếp, Địa Không tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Mọi chuyện khó thành, nên tu tâm cửa Phật</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thiên Lương đồng cung ở Quan Lộc gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Hóa Kỵ đồng cung ở Quan Lộc gặp các sao Kình Dương, Đà La, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tâm tình không được tốt, dễ bị thương bên ngoài, hoặc là mất ngủ.</t>
+  </si>
+  <si>
+    <t>Cuộc đời sự nghiệp luôn biến động, hơn nữa càng biến động thì càng xấu. Một đời như bèo dạt theo sóng nước, rất kỵ đầu cơ nếu không có thể phá sản.</t>
   </si>
 </sst>
 </file>
@@ -7089,10 +7128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G1958"/>
+  <dimension ref="A2:G1964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1950" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1961" sqref="C1961"/>
+    <sheetView tabSelected="1" topLeftCell="A1956" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1964" sqref="C1964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22809,7 +22848,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1953" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1953" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1953" s="1" t="s">
         <v>2201</v>
       </c>
@@ -22817,7 +22856,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="1954" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1954" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1954" s="1" t="s">
         <v>2203</v>
       </c>
@@ -22825,7 +22864,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1955" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1955" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1955" s="1" t="s">
         <v>2205</v>
       </c>
@@ -22833,7 +22872,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="1956" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1956" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1956" s="1" t="s">
         <v>2207</v>
       </c>
@@ -22841,7 +22880,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="1957" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1957" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
         <v>2209</v>
       </c>
@@ -22849,18 +22888,81 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="1958" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1958" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
         <v>2211</v>
       </c>
       <c r="B1958" s="1" t="s">
         <v>2212</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1959" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1959" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1959" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1959" s="1" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1960" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1960" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1960" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1960" s="1" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1961" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1961" s="1" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1962" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1962" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1963" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1963" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1964" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1964" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1964" s="1" t="s">
+        <v>2225</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E1956" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A62:B1950 A1958:B1048576 A1951:A1957 A61 A1:B55 A57:B60 A56">
+  <conditionalFormatting sqref="A62:B1950 A1951:A1957 A61 A1:B55 A57:B60 A56 A1958:B1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1945:B1949">

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0234145-8016-47CF-BC14-0854008EB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA04B9FB-9DF1-46C8-BC15-2CCEF6B667CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="2300">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6315,9 +6315,6 @@
     <t>Công danh sự nghiệp có chút ngăn trở. Bạn làm những việc sai trái, đi ngược đạo lý của đất trời thường bị phạt ngay. Hợp cách có thể làm các công việc liên quan tới pháp luật, kiểm sát, hải quan…những công việc bảo vệ cái đúng thì sẽ rất tốt</t>
   </si>
   <si>
-    <t>Có nhiều tiền của từ công việc</t>
-  </si>
-  <si>
     <t>Dễ có chức vụ, công danh, thi cử, có thực quyền. Người trong công việc hay học tập thường hay thuận lợi, hay được đảm nhiệm chức vụ cao, trách nhiệm lớn, quản lý nhiều người, nói có người nghe, đe có người sợ. Người ra ngoài quyền uy, nhưng về nhà sợ người hôn phối một phép.</t>
   </si>
   <si>
@@ -6738,6 +6735,231 @@
   </si>
   <si>
     <t>Cuộc đời sự nghiệp luôn biến động, hơn nữa càng biến động thì càng xấu. Một đời như bèo dạt theo sóng nước, rất kỵ đầu cơ nếu không có thể phá sản.</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự môn tọa ở cung Quan lộc, thì vỗn đã không tốt, ấy bởi vì Cự môn là sao thị phi, cho nên nếu nó Hóa kỵ thì càng tăng thêm mức độ nguy hại, dẫn đến sự nghiệp không được yên ổn, trong thành có bại.</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ đồng cung Kình Dương tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ đồng cung Đà La tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Kình Dương đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Đà La đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ đồng cung Địa Không, Địa Kiếp tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Linh Tinh đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Hỏa Tinh đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Địa Không đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Địa Kiếp đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Phát tài mà cũng phá tài nhanh, có những thất bại không ngờ, hoặc là gặp phải việc rắc rối ngoài dự liệu để rồi dẫn đến nỗi kiện tụng, tranh đấu rắc rối, tinh thần, tiền bạc đều chịu những tổn thương khó bù đắp.</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Thiên Đồng đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tình cảm nặng hơn lý trí</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Thiên Đồng đồng cung tại Quan Lộc ở Mùi</t>
+  </si>
+  <si>
+    <t>Phạm đào hoa, hơn nữa lại gặp vướng mắc trong chuyện tình cảm, có tài mà không gặp thời, không có phúc, một đời bôn ba vì tiền bạc.</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ, Thiên Đồng, Kình Dương đồng cung tại Quan Lộc ở Mùi</t>
+  </si>
+  <si>
+    <t>Phạm đào hoa, hơn nữa lại gặp vướng mắc trong chuyện tình cảm, có tài mà không gặp thời, không có phúc, một đời bôn ba vì tiền bạc. Khó có thể tránh được điều bất hạnh.</t>
+  </si>
+  <si>
+    <t>Dễ bị thương bên ngoài. Có rắc rối tình cảm với người khác giới. Tay chân bị thương. Gan không tốt. Làm việc chú trọng tình cảm. Nên làm nghề tự do. Tinh thần cô độc, tự chuốc khổ não.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Chủ về quyền lực bị tổn hao, phẩm cách bị bôi nhọ, dẫn đến một phen hồ đồ. Chuốc họa mà gặp tai ương. Sai lầm trong việc hành chính, giấy tờ. Nảy sinh rắc rối về chuyện tình cảm với người khác giới dẫn đến phẩm cách bị tổn hại hoặc phá tài.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Kình Dương đồng cung tại Quan Lộc gặp Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Họa tù ngục khó tránh mà còn bị đánh đập.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Đà La đồng cung tại Quan Lộc gặp Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Địa Không đồng cung tại Quan Lộc gặp Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Địa Kiếp đồng cung tại Quan Lộc gặp Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Nên theo ngành quân đội, còn nếu như không phải là bên quân đội thì cũng nên nắm quyền quản lý quân.</t>
+  </si>
+  <si>
+    <t>Nên chuyên về kỹ nghệ, hay thương mại. Nếu chen chân vào đường công danh, tất chẳng được xứng ý toại lòng, suốt đời hậm hực. Một đời lận đận gặp nhiều sóng gió, tuổi trẻ phải trả qua trăm đắng nghìn cay.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Phá Quân, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Một đời lận đận gặp nhiều sóng gió, tuổi trẻ phải trả qua trăm đắng nghìn cay</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Tham Lang, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Một đời bôn ba vì sự nghiệp, phàm là việc gì cũng không lo trước tính sau, hành vi bừa bãi để đến nỗi phạm pháp mà ngồi tù.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thất Sát, Hóa Kỵ đồng cung tại Quan Lộc không gặp các sao Sát tinh</t>
+  </si>
+  <si>
+    <t>Có thể kinh doanh về thực phẩm, giao thông sẽ được thành công, giàu sang</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thất Sát, Hóa Kỵ đồng cung tại Quan Lộc gặp các sao Sát tinh</t>
+  </si>
+  <si>
+    <t>Bị tai nạn giao thông, hoặc bị ung thư gan, hoặc tay chân bị thương, hoặc ngồi tù.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thiên Phủ, Hóa Kỵ đồng cung tại Quan Lộc ở Thìn</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thiên Phủ, Hóa Kỵ đồng cung tại Quan Lộc ở Tuất</t>
+  </si>
+  <si>
+    <t>Cuộc sống cũng khá giả.</t>
+  </si>
+  <si>
+    <t>Có tài mà không gặp thời, lại phạm đào hoa, hơn nữa còn gặp vướng mắc trong chuyện tình cảm.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Văn Xương đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Văn Khúc đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Người chuộng vui chơi giải trí, quán hát, quán bar</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ, Lộc Tồn đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Có phú quý, nếu như sau khi phá sản thì sẽ nhanh chóng khôi phục lại</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ đồng cung tại Quan Lộc ở Thân</t>
+  </si>
+  <si>
+    <t>Sau khi phá sản lại nhanh chóng gây dựng lại được, chỉ có điều là đều có quan hệ bất chính, hiếu sắc, không những gây nên sóng gió cho sự nghiệp, hơn nữa chuyện tình cảm cũng có nhiều rối rắm. Sau khi kết hôn vẫn còn có những rắc rối về tình cảm</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ đồng cung tại Quan Lộc ở Dần</t>
+  </si>
+  <si>
+    <t>Sau khi thất bại khó xây dựng lại được, xây dựng lại cũng rất vất vả. Hết sức tránh đi nơi đây đi đó phiêu bạt, khi có thành tựu thì phải nên biết "tích phúc". (Tích phúc thì nên tiết kiệm, cần cù, phấn đấu, việc gì nên chi dùng thì hãy chi dùng, việc nào nên tiết kiệm thì tiết kiệm), trước hoặc sau hôn nhân mà tình cảm gặp sóng gió thì nên nhìn nhận, lại bản thân mình.</t>
+  </si>
+  <si>
+    <t>Sẽ mắc bệnh gan, gặp đại tiểu hạn, trong nhà có người (như mẹ, vợ, con gái) bị thương</t>
+  </si>
+  <si>
+    <t>Gặp nạn phải bán nhà bán đất.</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thái Âm, Kình Dương đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thái Âm, Địa Không đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thái Âm, Địa Kiếp đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thái Âm, Địa Không, Địa Kiếp đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thái Âm, Văn Xương đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thái Âm, Văn Khúc đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Nên làm nghề tự do</t>
+  </si>
+  <si>
+    <t>Thái Dương, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bãi quan, bãi chức, đường hoạn lộ gian nan. </t>
+  </si>
+  <si>
+    <t>Mắt không tốt. Tâm tình bất định, dễ nóng nảy, tức giận, thô bạo, mất ngủ</t>
+  </si>
+  <si>
+    <t>Thái Dương, Hóa Kỵ, Thiên Hình đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Gặp tai họa hình ngục</t>
+  </si>
+  <si>
+    <t>Sẽ gặp nỗi buồn đau thất tình. Tình cảm vợ chồng cũng bị ảnh hưởng</t>
+  </si>
+  <si>
+    <t>Sự việc không được như ý. Sao Thái dương rất sáng, Hóa kỵ thì chủ về độ sáng bị hạn chế, cho nên chủ về người này tài hoa bị mai một, hoặc không được người ta tôn trọng để đến nỗi có tài lớn mà không được thể hiện, tráng trí khó vươn.</t>
+  </si>
+  <si>
+    <t>Thái Dương, Hóa Kỵ, Kình Dương đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương, Hóa Kỵ, Địa Kiếp đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương, Hóa Kỵ, Địa Không đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Mắt có tật, hoặc rất kém.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nhiều tiền của từ công việc. Hóa Lộc ở cung quan lộc, vì Hóa Lộc có hàm ý là "nhiều" đương nhiên trong lòng cũng muốn nâng cao và đa dạng hóa năng lực của mình, mà mục tiêu họ muốn nỗ lực theo đuổi cũng nhiều. </t>
+  </si>
+  <si>
+    <t>Cung quan lộc đã là đại biểu cho lãnh vực tinh thần, lúc sao Hóa Lộc ở cung quan lộc tượng trưng về tình cảm, là chủ về nội tâm của người này không thích cơ đơn tịch mịch; về cách suy nghĩ cũng không phải là quá ư cứng ngắc, không biết tùy cơ ứng biến, cách đối nhân xử thế đương nhiên là có tình người.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cung quan lộc cũng tượng trưng cho phương thức giải quyết sự tình, cách đối mặt với vấn đề của một người. Trường hợp Hóa Lộc ở cung quan lộc, thì bản tính không tệ, sẽ không dùng thủ đoạn quá khích để đối phó người khác, mà ít nhiều đều xét đến mặt tình cảm. Hóa Lộc ô cung quan lộc là chủ về rất hứng thú học tập, hiểu biết rộng. Họ xem học tập hay biết một thứ gì đó mới cũng là một kiếu hưởng thụ. nên lúc bắt đầu học tập họ rất nhiệt tình, nhưng mau nguội; hơn nữa, ưa học nhiều thứ, phạm vi quá rộng, nên phần nhiều là học nhiều mà ít tinh. Vì cung quan lộc còn chủ về năng lực học tập tốt hay xấu, nên trường hợp Hóa Lộc ở cung quan lộc, thường thường vì tình cảm mà thiếu chuyên tâm học hành, tuy không nhất định là có tình yêu, nhưng tóm lại, vì hay tư lự, suy nghĩ vu vơ khiến thành tích không được tốt. </t>
+  </si>
+  <si>
+    <t>Trong chừng mực nào đó, do cách suy nghĩ của mệnh tạo, sẽ khiến họ chọn được nghề nghiệp khá phù hợp với sở thích; cũng khiến cho họ dễ có hứng thú trong công việc, làm việc thoải mái nhẹ nhàng. Vì cung quan lộc còn là cung vị biểu hiện của cung tài bạch, mà Hóa Lộc ở cung quan lộc, nên trong công việc họ thường không chủ động tranh thủ sự đãi ngộ đặc biệt, mà chỉ mong hoàn cảnh làm việc có sự hòa hợp, biểu hiện của họ cũng hòa hợp với mọi người.</t>
+  </si>
+  <si>
+    <t>Trường hợp Hóa Lộc ở cung quan lộc, không nhất định liên quan đến của cải, đầu tư; trừ phi cung quan lộc và cung tài bạch có tứ hóa liền với nhau, hoặc có tứ hóa liền với tuyến "từ điền", nếu không khó nói có chuyện đầu tư, hợp tác.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc còn là cung vị thiên di của cung phu thê, là tượng trưng cho viễn cảnh thấy được của người phối ngẫu. Trong trường hợp cung quan lộc có Hóa Lộc, thì người phối ngẫu sẽ cho rằng mệnh tạo có chăm lo cho mình, và chủ quan nhận định hai người sẽ cùng có một tương lai tốt đẹp.</t>
   </si>
 </sst>
 </file>
@@ -7128,10 +7350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G1964"/>
+  <dimension ref="A2:G2004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1956" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1964" sqref="C1964"/>
+    <sheetView tabSelected="1" topLeftCell="A1214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1215" sqref="D1215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7139,6 +7361,9 @@
     <col min="1" max="2" width="45.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
     <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -7146,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2117</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7216,7 +7441,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7232,7 +7457,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7240,7 +7465,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -7248,7 +7473,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -7256,7 +7481,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7264,7 +7489,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7272,7 +7497,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7280,7 +7505,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7288,7 +7513,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7296,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7304,7 +7529,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7312,7 +7537,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7320,7 +7545,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7336,7 +7561,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7344,7 +7569,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7352,7 +7577,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7360,7 +7585,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7368,7 +7593,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7376,7 +7601,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7384,7 +7609,7 @@
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7392,7 +7617,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7400,7 +7625,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -7408,7 +7633,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -7416,7 +7641,7 @@
         <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7424,7 +7649,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7536,7 +7761,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7560,7 +7785,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7576,7 +7801,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7584,7 +7809,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7592,7 +7817,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7600,7 +7825,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7608,7 +7833,7 @@
         <v>87</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7616,7 +7841,7 @@
         <v>88</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7624,7 +7849,7 @@
         <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7632,7 +7857,7 @@
         <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9200,7 +9425,7 @@
         <v>286</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11552,10 +11777,10 @@
         <v>577</v>
       </c>
       <c r="B552" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C552" t="s">
         <v>2187</v>
-      </c>
-      <c r="C552" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13523,7 +13748,7 @@
         <v>823</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13531,7 +13756,7 @@
         <v>824</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13539,7 +13764,7 @@
         <v>825</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13547,7 +13772,7 @@
         <v>826</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13555,7 +13780,7 @@
         <v>827</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13563,7 +13788,7 @@
         <v>828</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13571,7 +13796,7 @@
         <v>829</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13579,7 +13804,7 @@
         <v>830</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13587,7 +13812,7 @@
         <v>831</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13595,7 +13820,7 @@
         <v>832</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13603,7 +13828,7 @@
         <v>833</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13611,7 +13836,7 @@
         <v>834</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13619,7 +13844,7 @@
         <v>835</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13627,7 +13852,7 @@
         <v>836</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13659,7 +13884,7 @@
         <v>840</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13667,7 +13892,7 @@
         <v>841</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13675,7 +13900,7 @@
         <v>842</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13683,7 +13908,7 @@
         <v>843</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13691,7 +13916,7 @@
         <v>844</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13707,7 +13932,7 @@
         <v>846</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13723,7 +13948,7 @@
         <v>848</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13731,7 +13956,7 @@
         <v>849</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -13739,7 +13964,7 @@
         <v>850</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13747,7 +13972,7 @@
         <v>851</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -13755,7 +13980,7 @@
         <v>852</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13931,7 +14156,7 @@
         <v>874</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16171,7 +16396,7 @@
         <v>1154</v>
       </c>
       <c r="B1129" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16195,7 +16420,7 @@
         <v>1157</v>
       </c>
       <c r="B1132" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16203,7 +16428,7 @@
         <v>1158</v>
       </c>
       <c r="B1133" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16219,7 +16444,7 @@
         <v>1160</v>
       </c>
       <c r="B1135" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16227,7 +16452,7 @@
         <v>1161</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16251,7 +16476,7 @@
         <v>1164</v>
       </c>
       <c r="B1139" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16259,7 +16484,7 @@
         <v>1165</v>
       </c>
       <c r="B1140" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16267,7 +16492,7 @@
         <v>1166</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16275,7 +16500,7 @@
         <v>1167</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
@@ -16491,7 +16716,7 @@
         <v>9</v>
       </c>
       <c r="B1169" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
@@ -16499,7 +16724,7 @@
         <v>10</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1171" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -16760,7 +16985,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="1201" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A1201" s="1" t="s">
         <v>1198</v>
       </c>
@@ -16768,7 +16993,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="1202" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A1202" s="1" t="s">
         <v>1199</v>
       </c>
@@ -16776,7 +17001,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1203" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
         <v>1200</v>
       </c>
@@ -16784,7 +17009,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1204" s="1" t="s">
         <v>1201</v>
       </c>
@@ -16792,7 +17017,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="1205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1205" s="1" t="s">
         <v>1202</v>
       </c>
@@ -16800,7 +17025,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="1206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1206" s="1" t="s">
         <v>1203</v>
       </c>
@@ -16808,7 +17033,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1207" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
         <v>1204</v>
       </c>
@@ -16816,7 +17041,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="1208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A1208" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16824,7 +17049,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1209" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1209" s="1" t="s">
         <v>1206</v>
       </c>
@@ -16832,7 +17057,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="1210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
         <v>1207</v>
       </c>
@@ -16840,7 +17065,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="1211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
         <v>1208</v>
       </c>
@@ -16848,7 +17073,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="1212" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
         <v>1209</v>
       </c>
@@ -16856,7 +17081,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="1213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A1213" s="1" t="s">
         <v>1210</v>
       </c>
@@ -16864,7 +17089,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="1214" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
         <v>1211</v>
       </c>
@@ -16872,7 +17097,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="1215" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1215" s="1" t="s">
         <v>1212</v>
       </c>
@@ -16880,12 +17105,27 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A1216" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>2086</v>
+        <v>2294</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D1216" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E1216" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F1216" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="G1216" s="1" t="s">
+        <v>2299</v>
       </c>
     </row>
     <row r="1217" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -16893,7 +17133,7 @@
         <v>1214</v>
       </c>
       <c r="B1217" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1218" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -16901,7 +17141,7 @@
         <v>1215</v>
       </c>
       <c r="B1218" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1219" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -16909,7 +17149,7 @@
         <v>1216</v>
       </c>
       <c r="B1219" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1220" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -16917,7 +17157,7 @@
         <v>1217</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1221" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -16925,10 +17165,10 @@
         <v>1218</v>
       </c>
       <c r="B1221" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1221" s="2" t="s">
         <v>2090</v>
-      </c>
-      <c r="C1221" s="2" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="1222" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -16936,7 +17176,7 @@
         <v>1219</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1223" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -16944,10 +17184,10 @@
         <v>1220</v>
       </c>
       <c r="B1223" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1223" s="1" t="s">
         <v>2093</v>
-      </c>
-      <c r="C1223" s="1" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="1224" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -16955,10 +17195,10 @@
         <v>1221</v>
       </c>
       <c r="B1224" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1224" s="1" t="s">
         <v>2093</v>
-      </c>
-      <c r="C1224" s="1" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="1225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -16966,7 +17206,7 @@
         <v>1222</v>
       </c>
       <c r="B1225" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1226" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -16974,7 +17214,7 @@
         <v>1223</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1227" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -16982,7 +17222,7 @@
         <v>1225</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1228" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -16990,7 +17230,7 @@
         <v>1224</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1229" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -16998,7 +17238,7 @@
         <v>1226</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1230" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -17006,7 +17246,7 @@
         <v>1227</v>
       </c>
       <c r="B1230" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1231" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -17644,7 +17884,7 @@
         <v>1619</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1310" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -17708,7 +17948,7 @@
         <v>1306</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17716,7 +17956,7 @@
         <v>1307</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17724,7 +17964,7 @@
         <v>1308</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17732,7 +17972,7 @@
         <v>1309</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
@@ -17740,7 +17980,7 @@
         <v>1310</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17796,7 +18036,7 @@
         <v>1317</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17804,7 +18044,7 @@
         <v>1318</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1330" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17812,7 +18052,7 @@
         <v>1319</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1331" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17844,7 +18084,7 @@
         <v>1323</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1335" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17884,7 +18124,7 @@
         <v>1328</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1340" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17892,7 +18132,7 @@
         <v>1329</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
@@ -17924,7 +18164,7 @@
         <v>1333</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1345" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17932,7 +18172,7 @@
         <v>1334</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17940,7 +18180,7 @@
         <v>1335</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1347" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17948,7 +18188,7 @@
         <v>1336</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1348" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17956,7 +18196,7 @@
         <v>1337</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17980,7 +18220,7 @@
         <v>1340</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1352" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -17988,7 +18228,7 @@
         <v>1341</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19071,7 +19311,7 @@
         <v>1484</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
@@ -19087,7 +19327,7 @@
         <v>1486</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
@@ -19463,7 +19703,7 @@
         <v>1533</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1537" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19538,12 +19778,12 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="1546" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>1555</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1547" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -22421,7 +22661,7 @@
     </row>
     <row r="1908" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1908" s="1" t="s">
         <v>1995</v>
@@ -22429,7 +22669,7 @@
     </row>
     <row r="1909" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1909" s="1" t="s">
         <v>1995</v>
@@ -22437,7 +22677,7 @@
     </row>
     <row r="1910" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1910" s="1" t="s">
         <v>1995</v>
@@ -22445,7 +22685,7 @@
     </row>
     <row r="1911" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1911" s="1" t="s">
         <v>1995</v>
@@ -22517,7 +22757,7 @@
     </row>
     <row r="1920" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1920" s="1" t="s">
         <v>1574</v>
@@ -22529,7 +22769,7 @@
     </row>
     <row r="1921" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1921" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1921" s="1" t="s">
         <v>1587</v>
@@ -22541,10 +22781,10 @@
     </row>
     <row r="1922" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1922" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C1922" s="1"/>
       <c r="D1922" s="1"/>
@@ -22554,10 +22794,10 @@
     </row>
     <row r="1923" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1923" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C1923" s="1"/>
       <c r="D1923" s="1"/>
@@ -22566,7 +22806,7 @@
     </row>
     <row r="1924" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1924" s="1" t="s">
         <v>1591</v>
@@ -22579,10 +22819,10 @@
     </row>
     <row r="1925" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1925" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1925" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C1925" s="1"/>
       <c r="D1925" s="1"/>
@@ -22591,10 +22831,10 @@
     </row>
     <row r="1926" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1926" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C1926" s="1"/>
       <c r="D1926" s="1"/>
@@ -22603,7 +22843,7 @@
     </row>
     <row r="1927" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1927" s="1" t="s">
         <v>1593</v>
@@ -22615,7 +22855,7 @@
     </row>
     <row r="1928" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1928" s="1" t="s">
         <v>1603</v>
@@ -22627,13 +22867,13 @@
     </row>
     <row r="1929" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1929" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1929" s="1" t="s">
         <v>2117</v>
-      </c>
-      <c r="C1929" s="1" t="s">
-        <v>2118</v>
       </c>
       <c r="D1929" s="1"/>
       <c r="E1929" s="1"/>
@@ -22641,7 +22881,7 @@
     </row>
     <row r="1930" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1930" s="1" t="s">
         <v>1585</v>
@@ -22654,10 +22894,10 @@
     </row>
     <row r="1931" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1931" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1931" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C1931" s="1"/>
       <c r="D1931" s="1"/>
@@ -22667,7 +22907,7 @@
     </row>
     <row r="1932" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1932" s="1" t="s">
         <v>1569</v>
@@ -22680,10 +22920,10 @@
     </row>
     <row r="1933" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1933" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C1933" s="1"/>
       <c r="D1933" s="1"/>
@@ -22692,271 +22932,615 @@
     </row>
     <row r="1934" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1934" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1935" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1935" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1936" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1936" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1937" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1937" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1937" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1938" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1938" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1939" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1939" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1940" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1940" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1941" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1941" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1941" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="B1941" s="1" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="1942" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1942" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1942" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1943" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1943" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1943" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1944" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1944" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1944" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1945" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1945" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1945" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1946" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1946" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1946" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1947" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1947" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1947" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1948" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1948" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1948" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1949" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1949" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B1949" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1950" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1950" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1950" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="B1950" s="1" t="s">
+      <c r="C1950" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="C1950" s="1" t="s">
+      <c r="D1950" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="D1950" s="1" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="1951" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1951" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1951" s="4" t="s">
         <v>2197</v>
-      </c>
-      <c r="B1951" s="4" t="s">
-        <v>2198</v>
       </c>
     </row>
     <row r="1952" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1952" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1952" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="B1952" s="1" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="1953" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1953" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1953" s="1" t="s">
         <v>2201</v>
-      </c>
-      <c r="B1953" s="1" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="1954" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1954" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1954" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="B1954" s="1" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="1955" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1955" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1955" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="B1955" s="1" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="1956" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1956" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1956" s="1" t="s">
         <v>2207</v>
-      </c>
-      <c r="B1956" s="1" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="1957" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1957" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="B1957" s="1" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="1958" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1958" s="1" t="s">
         <v>2211</v>
-      </c>
-      <c r="B1958" s="1" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="1959" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1959" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1959" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="B1959" s="1" t="s">
+      <c r="C1959" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="C1959" s="1" t="s">
+      <c r="D1959" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="D1959" s="1" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="1960" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1960" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1960" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1960" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="C1960" s="1" t="s">
+      <c r="D1960" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="D1960" s="1" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="1961" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1961" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1961" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="B1961" s="1" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="1962" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1962" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1962" s="1" t="s">
         <v>2220</v>
-      </c>
-      <c r="B1962" s="1" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="1963" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1963" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1963" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1964" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1964" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1964" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="B1964" s="1" t="s">
+      <c r="C1964" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="C1964" s="1" t="s">
+    </row>
+    <row r="1965" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1965" s="1" t="s">
         <v>2225</v>
+      </c>
+      <c r="B1965" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1966" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1966" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1967" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1967" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1968" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1968" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1969" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1969" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1970" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1970" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1971" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1971" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1972" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1972" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1973" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1973" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1974" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1974" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1975" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1975" s="1" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1976" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B1976" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1977" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B1977" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1977" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1978" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1978" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1979" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1979" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1979" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1980" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1980" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1980" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1981" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1981" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1981" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1982" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1982" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1982" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1983" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1983" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1984" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1984" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1985" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B1985" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1986" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B1986" s="1" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1987" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1987" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1988" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1988" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1989" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B1989" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1990" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1990" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1991" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1991" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1992" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1992" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1993" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1993" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1994" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1994" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1995" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1995" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1996" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1996" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1997" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1997" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1998" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1998" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1999" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1999" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2000" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2000" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C2000" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E2000" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2001" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2001" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2002" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2002" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2003" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2003" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2004" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2004" s="1" t="s">
+        <v>2293</v>
       </c>
     </row>
   </sheetData>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA04B9FB-9DF1-46C8-BC15-2CCEF6B667CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C4F9C-AB46-4E80-B26C-D307E6A4C9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="2300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="2309">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6960,6 +6960,33 @@
   </si>
   <si>
     <t>Cung quan lộc còn là cung vị thiên di của cung phu thê, là tượng trưng cho viễn cảnh thấy được của người phối ngẫu. Trong trường hợp cung quan lộc có Hóa Lộc, thì người phối ngẫu sẽ cho rằng mệnh tạo có chăm lo cho mình, và chủ quan nhận định hai người sẽ cùng có một tương lai tốt đẹp.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền là hành vi, lực hành động, lúc lực hành động nằm trong tay mệnh tạo, hơn nữa còn lấy cung quan lộc làm trọng tâm, nên mệnh tạo sẽ rất nỗ lực vì muốn nâng bản thân lên, mệnh tạo cũng tin vào năng lực của mình, rất kì vọng vào bản thân. Nếu sống lâu với người này bạn sẽ phát hiện họ là người có thực lực. Tuy Hóa Quyền có hàm ý biến động thay đổi, nhưng do tính hỏa là bốc lên, điểm chung của họ là luôn luôn tiến tới. Sự biến động thay đổi này chỉ là thay đổi phương thức, nhưng mục tiêu tiến tới vẫn như ban đầu, vì vậy trong quá trình học tập mệnh tạo có thể học nhiều thứ, nhưng mục đích chỉ có một.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc cũng có liên quan đến năng lực học tập cao hay thấp, trường hợp Hóa Quyền ở cung quan lộc, thường thường mệnh tạo là người chuyên tâm học tập, không giống như Hóa Lộc thường là khó chuyên tâm. Dưới tác dụng của Hóa Quyền, đối với những sự việc mà họ cảm thấy hứng thú, họ sẽ nghiên cứu tìm hiểu rất sâu. Cung quan lộc dùng để xem về nàng lực cao hay thấp, còn có thể dùng để xem người này tốt hay xấu. Vì Hóa Quyền có tính định hướng, nên có tác dụng tiết chế. Hóa Quyền ở cung quan lộc, tuy nội tâm có tính vội vàng, trong lòng hay lo lắng, không yên, nhưng người dạng này phần nhiều đều sống theo nguyên tắc, tuân thủ quy củ. Trường hợp Hóa Quyền ở cung quan lộc, người này còn có tính ép buộc, tính cầu toàn; hơn nữa, Hóa Quyền có năng lực tiết chế, nên người này có thể làm đến chức vụ cao trong công ti lớn. Phần nhiều sẽ vì tính cầu toàn mà làm việc vất vả, là đại biểu cho mẫu bạo gan, làm việc quá sức, cũng nhờ vậy mà phần nhiều họ là người ở cấp chủ quản trung hoặc cao.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền, Hỏa Tinh, Linh Tinh đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Sẽ khiến cho tính định hướng của Hóa Quyền bị ảnh hưởng, mất đi năng lực tiết chế, sẽ khiến cho người ta cảm thấy họ thích ra oai, phách lối và đầy toan tính, nhưng đồng thời cũng nhờ đó mà họ có thể tự sáng lập cơ nghiệp . Mệnh tạo có tính hấp tấp, dễ bị kích động, dùng thủ đoạn để xử lí sự việc. Nhất là trường hợp tổ hợp sao ở cung điền trạch không tốt, tâm tình đột nhiên thay đổi kiểu này sẽ làm cho người ta khó mà chịu nổi</t>
+  </si>
+  <si>
+    <t>Hóa Quyền, Hóa Kỵ đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hình thành tình trạng "thủy hỏa giao chiến" giữa Hóa Quyền và Hóa Kị; khiến sự nỗ lực mâu thuẫn với kì vọng, còn dề xảy ra tình trạng mất phương hướng, con đường học vấn sẽ dễ thấy tình trạng lúc nóng lúc lạnh, tâm tình cũng sẽ bị ảnh hưởng rất lớn.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc là cung vị khí số của cung mệnh, trường hợp có sao Hóa Quyền tọa thủ là chủ về sức sống và ý chí phấn đấu của mệnh tạo rất vượng thịnh, khó bị hoàn cảnh đánh bại. Lúc đối mặt với nghịch cảnh nghiêm trọng, phần nhiều họ có thể dựa vào ý chí phấn đấu ngoan cường để hóa hung hiểm thành yên ổn</t>
+  </si>
+  <si>
+    <t>Cung quan lộc là cung vị biểu hiện của cung tài bạch, trường hợp có Hóa Quyền, là chủ về vạch ra kế hoạch rồi mới hành động; không lãng phí tiền bạc, phần nhiều lúc dùng tiền đều có cân nhắc tính toán, chỗ khác nhau với trường hợp cung tài bạch có Hóa Quyền là, người này chi xuất tiền bạc không mau lẹ cho lắm.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc còn là cung vị thiên di của cung phu thê, trường hợp cung quan lộc thấy Hóa Quyền [năm sinh], chủ về sau khi kết hôn mệnh tạo và đối tượng hôn phối dễ xảy ra hiện tượng "dịch động". Cung quan lộc là cung vị thiên di của người phối ngẫu, tượng trưng cho viễn cảnh mà người phối ngẫu có thể thấy được, trường hợp có Hóa Quyền, thì người phối ngẫu sẽ vì cuộc sống hôn nhân mà tìm ra hướng đế nỗ lực, đối mặt với mục tiêu của đời người.</t>
   </si>
 </sst>
 </file>
@@ -7350,10 +7377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2004"/>
+  <dimension ref="A2:G2005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1215" sqref="D1215"/>
+    <sheetView tabSelected="1" topLeftCell="C1216" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1217" sqref="G1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17128,23 +17155,44 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="1217" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A1217" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="B1217" s="1" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="1218" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="C1217" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1217" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E1217" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F1217" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G1217" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A1218" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="B1218" s="1" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="1219" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="C1218" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D1218" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
         <v>1216</v>
       </c>
@@ -17152,7 +17200,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="1220" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A1220" s="1" t="s">
         <v>1217</v>
       </c>
@@ -17160,7 +17208,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="1221" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A1221" s="1" t="s">
         <v>1218</v>
       </c>
@@ -17171,7 +17219,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="1222" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1222" s="1" t="s">
         <v>1219</v>
       </c>
@@ -17179,7 +17227,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="1223" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A1223" s="1" t="s">
         <v>1220</v>
       </c>
@@ -17190,7 +17238,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1224" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A1224" s="1" t="s">
         <v>1221</v>
       </c>
@@ -17201,7 +17249,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1225" s="1" t="s">
         <v>1222</v>
       </c>
@@ -17209,7 +17257,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="1226" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1226" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17217,7 +17265,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="1227" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A1227" s="1" t="s">
         <v>1225</v>
       </c>
@@ -17225,7 +17273,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1228" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A1228" s="1" t="s">
         <v>1224</v>
       </c>
@@ -17233,7 +17281,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1229" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1229" s="1" t="s">
         <v>1226</v>
       </c>
@@ -17241,7 +17289,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="1230" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A1230" s="1" t="s">
         <v>1227</v>
       </c>
@@ -17249,7 +17297,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="1231" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A1231" s="1" t="s">
         <v>1228</v>
       </c>
@@ -17260,7 +17308,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="1232" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1232" s="1" t="s">
         <v>1229</v>
       </c>
@@ -23541,6 +23589,14 @@
       </c>
       <c r="B2004" s="1" t="s">
         <v>2293</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2005" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2005" s="1" t="s">
+        <v>2305</v>
       </c>
     </row>
   </sheetData>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C4F9C-AB46-4E80-B26C-D307E6A4C9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCED77A-56FA-443A-B11F-785FC0A888B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7379,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G2005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1216" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1217" sqref="G1217"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCED77A-56FA-443A-B11F-785FC0A888B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056927DD-1262-432E-BAFC-049DB6D238E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="2329">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6987,6 +6987,67 @@
   </si>
   <si>
     <t>Cung quan lộc còn là cung vị thiên di của cung phu thê, trường hợp cung quan lộc thấy Hóa Quyền [năm sinh], chủ về sau khi kết hôn mệnh tạo và đối tượng hôn phối dễ xảy ra hiện tượng "dịch động". Cung quan lộc là cung vị thiên di của người phối ngẫu, tượng trưng cho viễn cảnh mà người phối ngẫu có thể thấy được, trường hợp có Hóa Quyền, thì người phối ngẫu sẽ vì cuộc sống hôn nhân mà tìm ra hướng đế nỗ lực, đối mặt với mục tiêu của đời người.</t>
+  </si>
+  <si>
+    <t>Như đã biết, cung quan lộc là tư duy ở tầng thâm sâu với tầm nhìn xa, đồng thời cùng đại biểu cho cơ sở đi lên của đời người; trường hợp Hóa Khoa xuất hiện ở cung quan lộc, bất luận là việc học hành hay tiếp thu kiến thức, mệnh tạo đều tuần tự tiến từng bước, hấp thu và tiêu hóa kiến thức với trạng thái tâm lí vững vàng, không hấp tấp; họ mong muốn sau khi hiểu biết thông suốt sẽ mang ra vận dụng, cho nên thường thường họ là người có thực học, có thực lực.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc còn chủ về năng lực học tập, trường hợp có Hóa Khoa, là chủ về mệnh tạo rất có hứng thú đối với học vấn và kiến thức, có tinh thần tự tìm hiểu, nghiên cứu một cách bền bỉ; mà mục đích tìm hiểu, nghiên cứu không phải là vì muốn nâng cao địa vị, phần nhiều xuất phát từ niềm hứng thú của bản thân. Hóa Khoa còn có tác dụng "bền bỉ", "lâu dài", làm cho việc học không phải lúc nóng lúc nguội.</t>
+  </si>
+  <si>
+    <t>ì liên quan đến tư duy, EQ, nên trường hợp Hóa Khoa ở cung quan lộc là chủ về mệnh tạo có EQ khá cao, lúc làm việc đều có kế hoạch trước, tính logic và tính suy luận của họ cũng nhất trí. Nói một cách tổng thể, công việc giao cho mệnh tạo đều được xử lí thỏa đáng và chu đáo.</t>
+  </si>
+  <si>
+    <t>Do mệnh tạo là người có thực lực, lúc làm việc có dòm trước ngó sau, nên trong tình huống Hóa Lộc và Hóa Kị ở vị trí thích đáng, thường thường với cách làm việc bằng thái độ nghiêm túc, mệnh tạo có thể nhờ học vấn và năng lực hơn người của mình mà có thanh danh hiển hách.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc còn là nơi dùng để xem tiết khí của mỗi người. Trường hợp Hóa Khoa ở cung quan lộc, thông thường là mẫu người quang minh lỗi lạc, không phải tầm thường. Bất luận trong môi trường làm việc hay lúc còn đi học, thậm chí trong cuộc sống thường ngày, mệnh tạo cũng đều sinh hoạt rất có quy luật, có quy củ, cho nên thường được mọi người xem là mẫu mực.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc còn là cung vị chủ về tâm lí ở tầng thâm sâu, trường hợp có Hóa Khoa, là chủ về nội tâm của mệnh tạo có sức mạnh ổn định, bên ngoài dù sóng to gió lớn cũng rất khó dao động. Lại vì Hóa Khoa chủ về ngăn nắp, có lớp lang, ổn định, cho nên phần nhiều là người có tâm tính bình hòa, biết tiến thoái, không thích gây sự với ai, là người rất biết "minh triết bảo thân".</t>
+  </si>
+  <si>
+    <t>Người có Hóa Khoa ở cung quan lộc, nếu không có các tình huống tự hóa hay tứ hóa khác, về bản chất, họ thiếu tính thích ra oai, phách lối và không có tâm lí "kẻ cả", cũng ít khi có thái độ ra lệnh (trừ phi cung mệnh thấy Hóa Quyền); thông thường cũng thiếu tinh thần toan tính cho tương lai, sáng lập cơ nghiệp, chỉ trong tình huống cung tài bạch và cung quan lộc phi hóa lẫn nhau, mới làm thay đổi các tính chất này.</t>
+  </si>
+  <si>
+    <t>Lực tác động của Hóa Khoa còn bao gồm "làm giảm nhẹ", "làm hòa hoãn", "làm bớt căng thẳng", "cải thiện"; còn chủ về quý nhân và hóa giải tai ách; nên trong môi trường làm việc họ tạo được sự đồng tình của cấp trên, chưa nói đến hành vi ổn định, vững vàng của họ thường thường đã có ý "minh triết bảo thân", có tác dụng "phù hộ" trong môi trường làm việc. Thêm vào đó, mệnh tạo có lúc thiếu tinh thần toan tính cho tương lai, nên nếu làm việc trong một cơ cấu dạng lớn là rất thích hợp (trời sập xuống cũng khó làm tổn thương mệnh tạo).</t>
+  </si>
+  <si>
+    <t>Cung quan lộc là cung vị khí số của sinh mệnh, thấy Hóa Khoa ở đó, là tác dụng bảo vệ của mệnh bàn phủ trên cung vị khí số của sinh mệnh, vì vậy mệnh tạo thường thường có sức sống và sức mạnh tinh thần rất ngoan cường. Hơn nữa, vì Hóa Khoa là lực tác động phù hộ sinh mệnh, nên cuộc đời mệnh tạo ít khi gặp nguy cơ tức thời, dù gặp nguy hiểm, thường thường cũng có thể chuyến nguy thành an.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Khoa ở cung quan lộc, là cung tam hợp của cung mệnh, là chủ về có năng lực, còn rất được sự đồng tình của hoàn cảnh bên ngoài, nhất là trong đánh giá về năng lực chuyên nghiệp của mệnh tạo. Xét ở góc độ này, mệnh tạo cùng rất thích được người ta khen ngợi và khẳng định; vì tác dụng của Hóa Khoa có thiên hướng lâu dài, nên khi được "gãi đúng chỗ ngứa", đối với họ, có thể nói sẽ khiến họ vui rất lâu.</t>
+  </si>
+  <si>
+    <t>Lúc xem cung quan lộc là cung vị thiên di của cung phu thê, là cái nhìn về tương lai của người phối ngẫu, trường hợp cung quan lộc có Hóa Khoa là người phối ngẫu có tính toán quy hoạch tiền đồ bằng lí tính.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc là sở tại của lãnh vực tinh thần; trường hợp cung quan lộc có Hóa Kị, là mệnh tạo thường tự vạch cho mình một giới hạn, hoặc là quá đặt tinh thần vào lãnh vực mà mình chuyên chú. Vì Hóa Kị còn có ý tượng "không bao giờ thỏa mãn", thêm vào đó, tác dụng chủ yếu của cung quan lộc là phát huy sự phong phú của bản thân, nâng cao bản thân. Vì vậy bất kể thế nào, mệnh tạo cũng đều muốn học, muốn bồi đắp bản thân; thường thường nhờ trạng thái tâm lí này mà thành một nhân tài có chuyên môn đặc thù, còn mức độ tinh thông và địa vị xã hội như thế nào, thì cần phải xem vị trí Hóa Lộc [năm sinh] để định.</t>
+  </si>
+  <si>
+    <t>Trường hợp Hóa Lộc [năm sinh] ở "ngã cung", là chủ về mệnh tạo có lí tưởng, còn có tinh thần trách nhiệm và biết được hướng nỗ lực. Trong tình hình như vậy, Hóa Kị ở cung quan lộc, là sẽ vì lí tưởng mà chuyên tâm trì chí, làm việc khắc khổ. Bất kể trong học vấn hay công việc, thường thấy họ bỏ ra rất nhiều thời gian, tinh thần vào việc bồi đắp bản thân, nâng địa vị lên; có khuynh hướng làm việc điên cuồng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp Hóa Lộc [năm sinh] ở "tha cung", còn Hóa Kị ở cung quan lộc, là chủ về mệnh tạo dễ tự mâu thuẫn với chính mình, thường muốn nỗ lực nhưng lại thiếu lòng tự tin, muốn đông muốn tây, mục tiêu không rõ ràng, khiến làm việc thiếu hiệu quả. Trong tình trạng như vậy, mệnh tạo lại phải bỏ ra nhiều thời gian và tinh thần hơn vào việc học hay việc làm, do đó bị anh hưởng ngược lại, làm cho mệnh tạo có cảm giác thiếu an toàn.
+</t>
+  </si>
+  <si>
+    <t>Hóa Kị ở cung quan lộc tuy là ở "ngã cung", đối với mệnh tạo là một loại "gánh vác", nhưng đối với cung phu thê, thì sẽ vọng nhìn Hóa Kị ở xa xa (đối cung); thêm vào đó, mệnh tạo mang toàn bộ thời gian và tinh thần tập trung vào công việc, làm ảnh hưởng đến cuộc sống chung của hai người. Thường thấy mệnh tạo thiếu lòng tự tin để kết hôn hay thành thân, hoặc vì tâm lí có vấn đề nên thái độ đối với hôn nhân thiếu chín chắn, khiến mệnh tạo thường kết hôn muộn.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Kị ở đối cung của cung phu thê, do đó sau khi kết hôn mệnh tạo có thể vì quá bận rộn, và chuyên chú vào hướng mà bản thân muốn nỗ lực, thành phải giống như người vô tâm, thậm chí là vô lực trong việc quan tâm đến người phối ngẫu và gia đình, khiến người phối ngẫu câm thấy lo lắng đổi với viễn cành tương lai của hôn nhân, còn ngầm phê bình hoặc bất mãn tình trạng mệnh tạo lao tâm lao lực như vậy.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc tượng trưng cho năng lực tinh thần và sức sống của mệnh tạo; trường hợp cung quan lộc có Hóa Kị, có thể thấy tinh thần và sức sống của mệnh tạo không được tốt; ngay cả người có Hóa Lộc [năm sinh] ở "ngã cung", về phương diện năng lực tinh thần vận bị tình trạng thái quá hay bất cập, dễ có tính cưỡng ép, bắt buộc. Trường hợp Hóa Lộc [năm sinh] ở "tha cung", đến đại vận làm cho cung quan lộc của đại vận có Hóa Kị [đại vận], hoặc cung quan lộc của đại vận tự Hóa Kị, là ý tượng: sức sống bị đình đốn, dễ gặp nguy hiểm về sinh mệnh.</t>
+  </si>
+  <si>
+    <t>Cung quan lộc chủ về lãnh vực tình thần mà mệnh tạo có thể ý thức được, Hóa Kị ở cung quan lộc cũng giống như một cái hố không có đáy; trong lãnh vực tinh thần, học thuật, sẽ khiến cho mệnh tạo luôn cảm thấy không đủ, cũng vì ảnh hưởng về tình thần, nên bất kể Hóa Lộc [năm sinh] ở "ngã cung" hay "tha cung", đều sẽ khiến mệnh tạo cảm thấy thiếu tự tin, sẽ bỏ ra rất nhiều thời gian để không ngừng bồi đắp bản thân; ngoại trừ tình trạng thiếu lòng tự tin, đương sự còn dễ có cảm giác thất lợi, trở ngại. Thường thường người ngoài nhìn thì thấy đương sự đã làm rất khá, nhưng bản thân mệnh tạo vẫn cho rằng còn quá tệ.</t>
+  </si>
+  <si>
+    <t>Vì vấn đề tâm lí đã thuật ở trên, mệnh tạo sẽ luôn lo lắng không biết sự tình có được xử lí tốt hay không. Tuy hướng chính đã được xác định, nhưng mệnh tạo vẫn cứ chú trọng những chuyện lặt vặt, cũng hay kiểm tra tới kiểm tra lui các tiểu tiết, có lúc làm cho những người chung quanh không cách nào chịu nối. Tổng hợp những điều đã thuật ở trên, mệnh tạo là người không chủ động tranh thủ, bất kể đó là tiền bạc, chức vị, thậm chí là tình yêu. Luôn có tâm lí cho rằng chuyện tốt sẽ không đến với mình.</t>
+  </si>
+  <si>
+    <t>Nếu Hóa Lộc ở "tha cung", là chủ về khả nàng làm việc có hiệu quả kém, dễ bị tình trạng tìm không ra mục tiêu ở viễn cảnh tương lai. Ngoài ra, cung quan lộc còn là cung vị biểu hiện của cung tài bạch, là chủ về mệnh tạo thiếu sức bật trong công việc, sự nghiệp; vì cảm giác thiếu an toàn, nên thường thấy mệnh tạo sẽ tử thủ ở cương vị của mình. Tuy về cá tính, mẫu người này rất thích hợp làm công chức để cầu yên ổn, nhưng cũng vì cung quan lộc có Hóa Kị, nên muốn vào công môn là hơi khó</t>
   </si>
 </sst>
 </file>
@@ -7377,10 +7438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2005"/>
+  <dimension ref="A2:M2006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A1218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1219" sqref="C1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7388,9 +7449,15 @@
     <col min="1" max="2" width="45.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
     <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" customWidth="1"/>
+    <col min="11" max="11" width="58" customWidth="1"/>
+    <col min="12" max="12" width="41" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -16738,7 +16805,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="1169" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A1169" s="1" t="s">
         <v>9</v>
       </c>
@@ -16746,7 +16813,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1170" s="1" t="s">
         <v>10</v>
       </c>
@@ -16754,7 +16821,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="1171" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1171" s="1" t="s">
         <v>11</v>
       </c>
@@ -16768,7 +16835,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="1172" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
         <v>12</v>
       </c>
@@ -16776,7 +16843,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1173" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A1173" s="1" t="s">
         <v>13</v>
       </c>
@@ -16787,7 +16854,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="1174" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A1174" s="1" t="s">
         <v>14</v>
       </c>
@@ -16795,7 +16862,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="1175" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A1175" s="1" t="s">
         <v>15</v>
       </c>
@@ -16803,7 +16870,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="1176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1176" s="1" t="s">
         <v>16</v>
       </c>
@@ -16811,7 +16878,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="1177" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A1177" s="1" t="s">
         <v>17</v>
       </c>
@@ -16819,15 +16886,48 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="1178" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A1178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1178" s="1" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1178" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E1178" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H1178" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="I1178" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="J1178" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="K1178" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L1178" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="M1178" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1179" s="1" t="s">
         <v>19</v>
       </c>
@@ -16835,7 +16935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1180" s="1" t="s">
         <v>20</v>
       </c>
@@ -16843,7 +16943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1181" s="1" t="s">
         <v>21</v>
       </c>
@@ -16860,7 +16960,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="1182" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
         <v>22</v>
       </c>
@@ -16868,7 +16968,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1183" s="1" t="s">
         <v>23</v>
       </c>
@@ -16876,7 +16976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
         <v>24</v>
       </c>
@@ -17155,7 +17255,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="1217" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A1217" s="1" t="s">
         <v>1214</v>
       </c>
@@ -17178,21 +17278,42 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="1218" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A1218" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="B1218" s="1" t="s">
         <v>2087</v>
       </c>
-      <c r="C1218" t="s">
-        <v>2302</v>
+      <c r="C1218" s="1" t="s">
+        <v>2320</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>2321</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G1218" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="H1218" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I1218" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1218" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K1218" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
         <v>1216</v>
       </c>
@@ -17200,7 +17321,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="1220" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A1220" s="1" t="s">
         <v>1217</v>
       </c>
@@ -17208,7 +17329,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="1221" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A1221" s="1" t="s">
         <v>1218</v>
       </c>
@@ -17219,7 +17340,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1222" s="1" t="s">
         <v>1219</v>
       </c>
@@ -17227,7 +17348,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="1223" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A1223" s="1" t="s">
         <v>1220</v>
       </c>
@@ -17238,7 +17359,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1224" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A1224" s="1" t="s">
         <v>1221</v>
       </c>
@@ -17249,7 +17370,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1225" s="1" t="s">
         <v>1222</v>
       </c>
@@ -17257,7 +17378,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="1226" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1226" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17265,7 +17386,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="1227" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A1227" s="1" t="s">
         <v>1225</v>
       </c>
@@ -17273,7 +17394,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1228" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A1228" s="1" t="s">
         <v>1224</v>
       </c>
@@ -17281,7 +17402,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1229" s="1" t="s">
         <v>1226</v>
       </c>
@@ -17289,7 +17410,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="1230" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A1230" s="1" t="s">
         <v>1227</v>
       </c>
@@ -17297,7 +17418,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="1231" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A1231" s="1" t="s">
         <v>1228</v>
       </c>
@@ -17308,7 +17429,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="1232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1232" s="1" t="s">
         <v>1229</v>
       </c>
@@ -23599,10 +23720,18 @@
         <v>2305</v>
       </c>
     </row>
+    <row r="2006" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2006" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2006" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:E1956" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A62:B1950 A1951:A1957 A61 A1:B55 A57:B60 A56 A1958:B1048576">
+  <conditionalFormatting sqref="A62:B1950 A1951:A1957 A61 A1:B55 A57:B60 A56 A1958:B2005 A2007:B1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1945:B1949">
